--- a/test/files/forex_first.xlsx
+++ b/test/files/forex_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A094A5A-4EE1-9945-A028-7D206C81FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4596202-E552-FB40-92DD-A50DC573F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buy_orders" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
+  </si>
+  <si>
+    <t>source_amount</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,9 +179,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -394,7 +405,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -451,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -499,46 +510,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43476</v>
       </c>
       <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>150</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -561,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -573,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -590,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -615,29 +638,29 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -655,26 +678,26 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test/files/forex_first.xlsx
+++ b/test/files/forex_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4596202-E552-FB40-92DD-A50DC573F2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F697397-66A0-184F-B102-0F4062C707A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buy_orders" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>sell_price</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>source_currency</t>
   </si>
   <si>
@@ -99,10 +96,10 @@
     <t>target_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
-  </si>
-  <si>
     <t>source_amount</t>
+  </si>
+  <si>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -376,16 +373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -399,16 +397,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43476</v>
       </c>
@@ -421,13 +422,16 @@
       <c r="D2">
         <v>144.03</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -462,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -473,164 +477,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>43476</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0506A6B6-C8A9-BA46-B056-4D5A5EB338F8}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>43458</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43458</v>
-      </c>
-      <c r="C2" s="3">
-        <v>150</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -645,22 +491,184 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43476</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0506A6B6-C8A9-BA46-B056-4D5A5EB338F8}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>43458</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43458</v>
+      </c>
+      <c r="C2" s="3">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -697,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
